--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.99253064082717</v>
+        <v>0.102926</v>
       </c>
       <c r="N2">
-        <v>1.99253064082717</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.8545341732230145</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P2">
-        <v>0.8545341732230145</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q2">
-        <v>61.37693924045939</v>
+        <v>3.257142880332</v>
       </c>
       <c r="R2">
-        <v>61.37693924045939</v>
+        <v>13.028571521328</v>
       </c>
       <c r="S2">
-        <v>0.03523739776672375</v>
+        <v>0.001358955613465995</v>
       </c>
       <c r="T2">
-        <v>0.03523739776672375</v>
+        <v>0.0006670046705825946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.339184933884157</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N3">
-        <v>0.339184933884157</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O3">
-        <v>0.1454658267769855</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P3">
-        <v>0.1454658267769855</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q3">
-        <v>10.44808679561625</v>
+        <v>68.66902927794801</v>
       </c>
       <c r="R3">
-        <v>10.44808679561625</v>
+        <v>412.0141756676881</v>
       </c>
       <c r="S3">
-        <v>0.005998399315352181</v>
+        <v>0.02865031293899403</v>
       </c>
       <c r="T3">
-        <v>0.005998399315352181</v>
+        <v>0.02109328555833676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.72907579575249</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>75.72907579575249</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.101376392339517</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.101376392339517</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99253064082717</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N4">
-        <v>1.99253064082717</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O4">
-        <v>0.8545341732230145</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P4">
-        <v>0.8545341732230145</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q4">
-        <v>150.89250392456</v>
+        <v>13.303523291685</v>
       </c>
       <c r="R4">
-        <v>150.89250392456</v>
+        <v>53.21409316673999</v>
       </c>
       <c r="S4">
-        <v>0.08662959161218106</v>
+        <v>0.005550538714552233</v>
       </c>
       <c r="T4">
-        <v>0.08662959161218106</v>
+        <v>0.002724323892679142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H5">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I5">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J5">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.339184933884157</v>
+        <v>0.102926</v>
       </c>
       <c r="N5">
-        <v>0.339184933884157</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.1454658267769855</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P5">
-        <v>0.1454658267769855</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q5">
-        <v>25.68616156689062</v>
+        <v>8.566267866835334</v>
       </c>
       <c r="R5">
-        <v>25.68616156689062</v>
+        <v>51.397607201012</v>
       </c>
       <c r="S5">
-        <v>0.01474680072733589</v>
+        <v>0.00357404579159962</v>
       </c>
       <c r="T5">
-        <v>0.01474680072733589</v>
+        <v>0.002631327924456157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H6">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I6">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J6">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.99253064082717</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N6">
-        <v>1.99253064082717</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8545341732230145</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P6">
-        <v>0.8545341732230145</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q6">
-        <v>788.592396033784</v>
+        <v>180.5991694446336</v>
       </c>
       <c r="R6">
-        <v>788.592396033784</v>
+        <v>1625.392525001702</v>
       </c>
       <c r="S6">
-        <v>0.4527424188747834</v>
+        <v>0.07535016550427315</v>
       </c>
       <c r="T6">
-        <v>0.4527424188747834</v>
+        <v>0.08321283756484037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H7">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I7">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J7">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.339184933884157</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N7">
-        <v>0.339184933884157</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O7">
-        <v>0.1454658267769855</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P7">
-        <v>0.1454658267769855</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q7">
-        <v>134.240675766586</v>
+        <v>34.98819311163916</v>
       </c>
       <c r="R7">
-        <v>134.240675766586</v>
+        <v>209.929158669835</v>
       </c>
       <c r="S7">
-        <v>0.07706953372061928</v>
+        <v>0.01459788630127512</v>
       </c>
       <c r="T7">
-        <v>0.07706953372061928</v>
+        <v>0.01074743528828415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H8">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I8">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J8">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.99253064082717</v>
+        <v>0.102926</v>
       </c>
       <c r="N8">
-        <v>1.99253064082717</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.8545341732230145</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P8">
-        <v>0.8545341732230145</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q8">
-        <v>353.7322658065795</v>
+        <v>53.992600877214</v>
       </c>
       <c r="R8">
-        <v>353.7322658065795</v>
+        <v>323.955605263284</v>
       </c>
       <c r="S8">
-        <v>0.2030828631632757</v>
+        <v>0.02252696634549848</v>
       </c>
       <c r="T8">
-        <v>0.2030828631632757</v>
+        <v>0.01658508006179305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H9">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I9">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J9">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.339184933884157</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N9">
-        <v>0.339184933884157</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O9">
-        <v>0.1454658267769855</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P9">
-        <v>0.1454658267769855</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q9">
-        <v>60.21521211864</v>
+        <v>1138.304221413846</v>
       </c>
       <c r="R9">
-        <v>60.21521211864</v>
+        <v>10244.73799272461</v>
       </c>
       <c r="S9">
-        <v>0.03457043324886856</v>
+        <v>0.4749269431388005</v>
       </c>
       <c r="T9">
-        <v>0.03457043324886856</v>
+        <v>0.5244848277384868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.3203738986914</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H10">
-        <v>15.3203738986914</v>
+        <v>1573.730667</v>
       </c>
       <c r="I10">
-        <v>0.02050895536254447</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J10">
-        <v>0.02050895536254447</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.99253064082717</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N10">
-        <v>1.99253064082717</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O10">
-        <v>0.8545341732230145</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P10">
-        <v>0.8545341732230145</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q10">
-        <v>30.52631442207142</v>
+        <v>220.5281898089324</v>
       </c>
       <c r="R10">
-        <v>30.52631442207142</v>
+        <v>1323.169138853595</v>
       </c>
       <c r="S10">
-        <v>0.01752560321439964</v>
+        <v>0.09200947962030943</v>
       </c>
       <c r="T10">
-        <v>0.01752560321439964</v>
+        <v>0.06774035005613094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H11">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I11">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J11">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.339184933884157</v>
+        <v>0.102926</v>
       </c>
       <c r="N11">
-        <v>0.339184933884157</v>
+        <v>0.205852</v>
       </c>
       <c r="O11">
-        <v>0.1454658267769855</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P11">
-        <v>0.1454658267769855</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q11">
-        <v>5.196440007908207</v>
+        <v>18.67914822929666</v>
       </c>
       <c r="R11">
-        <v>5.196440007908207</v>
+        <v>112.07488937578</v>
       </c>
       <c r="S11">
-        <v>0.002983352148144821</v>
+        <v>0.007793374215864517</v>
       </c>
       <c r="T11">
-        <v>0.002983352148144821</v>
+        <v>0.00573773376047393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.8525874170115</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H12">
-        <v>51.8525874170115</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I12">
-        <v>0.06941360620831573</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J12">
-        <v>0.06941360620831573</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.99253064082717</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N12">
-        <v>1.99253064082717</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O12">
-        <v>0.8545341732230145</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P12">
-        <v>0.8545341732230145</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q12">
-        <v>103.3178692345648</v>
+        <v>393.8049461661811</v>
       </c>
       <c r="R12">
-        <v>103.3178692345648</v>
+        <v>3544.24451549563</v>
       </c>
       <c r="S12">
-        <v>0.05931629859165099</v>
+        <v>0.1643045644189415</v>
       </c>
       <c r="T12">
-        <v>0.05931629859165099</v>
+        <v>0.1814494890443189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.8525874170115</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H13">
-        <v>51.8525874170115</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I13">
-        <v>0.06941360620831573</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J13">
-        <v>0.06941360620831573</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.339184933884157</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N13">
-        <v>0.339184933884157</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O13">
-        <v>0.1454658267769855</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P13">
-        <v>0.1454658267769855</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q13">
-        <v>17.58761643476151</v>
+        <v>76.29339352529581</v>
       </c>
       <c r="R13">
-        <v>17.58761643476151</v>
+        <v>457.7603611517749</v>
       </c>
       <c r="S13">
-        <v>0.01009730761666474</v>
+        <v>0.03183137467736843</v>
       </c>
       <c r="T13">
-        <v>0.01009730761666474</v>
+        <v>0.02343528593261213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.79677433333333</v>
+      </c>
+      <c r="H14">
+        <v>47.390323</v>
+      </c>
+      <c r="I14">
+        <v>0.01775072507139627</v>
+      </c>
+      <c r="J14">
+        <v>0.01833332435500452</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.102926</v>
+      </c>
+      <c r="N14">
+        <v>0.205852</v>
+      </c>
+      <c r="O14">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P14">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q14">
+        <v>1.625898795032667</v>
+      </c>
+      <c r="R14">
+        <v>9.755392770196</v>
+      </c>
+      <c r="S14">
+        <v>0.0006783627171467598</v>
+      </c>
+      <c r="T14">
+        <v>0.0004994325379752116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.79677433333333</v>
+      </c>
+      <c r="H15">
+        <v>47.390323</v>
+      </c>
+      <c r="I15">
+        <v>0.01775072507139627</v>
+      </c>
+      <c r="J15">
+        <v>0.01833332435500452</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P15">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q15">
+        <v>34.27816833988511</v>
+      </c>
+      <c r="R15">
+        <v>308.5035150589661</v>
+      </c>
+      <c r="S15">
+        <v>0.01430164748562429</v>
+      </c>
+      <c r="T15">
+        <v>0.01579400205913777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.79677433333333</v>
+      </c>
+      <c r="H16">
+        <v>47.390323</v>
+      </c>
+      <c r="I16">
+        <v>0.01775072507139627</v>
+      </c>
+      <c r="J16">
+        <v>0.01833332435500452</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P16">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q16">
+        <v>6.640845453925833</v>
+      </c>
+      <c r="R16">
+        <v>39.845072723555</v>
+      </c>
+      <c r="S16">
+        <v>0.002770714868625218</v>
+      </c>
+      <c r="T16">
+        <v>0.002039889757891535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>53.1948375</v>
+      </c>
+      <c r="H17">
+        <v>106.389675</v>
+      </c>
+      <c r="I17">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J17">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.102926</v>
+      </c>
+      <c r="N17">
+        <v>0.205852</v>
+      </c>
+      <c r="O17">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P17">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q17">
+        <v>5.475131844525</v>
+      </c>
+      <c r="R17">
+        <v>21.9005273781</v>
+      </c>
+      <c r="S17">
+        <v>0.002284352092600024</v>
+      </c>
+      <c r="T17">
+        <v>0.001121209184406865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>53.1948375</v>
+      </c>
+      <c r="H18">
+        <v>106.389675</v>
+      </c>
+      <c r="I18">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J18">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P18">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q18">
+        <v>115.429995780225</v>
+      </c>
+      <c r="R18">
+        <v>692.5799746813501</v>
+      </c>
+      <c r="S18">
+        <v>0.04816007356481203</v>
+      </c>
+      <c r="T18">
+        <v>0.03545700133803684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>53.1948375</v>
+      </c>
+      <c r="H19">
+        <v>106.389675</v>
+      </c>
+      <c r="I19">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J19">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P19">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q19">
+        <v>22.36271072371875</v>
+      </c>
+      <c r="R19">
+        <v>89.45084289487498</v>
+      </c>
+      <c r="S19">
+        <v>0.009330241990248874</v>
+      </c>
+      <c r="T19">
+        <v>0.0045794836295568</v>
       </c>
     </row>
   </sheetData>
